--- a/Evaluation/eval002/sub1525/Classifcation Report.xlsx
+++ b/Evaluation/eval002/sub1525/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9801980198019802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9270833333333333</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9349569349569349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9306930693069306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9305227987421383</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.934956934956935</v>
       </c>
       <c r="C6" t="n">
         <v>0.9306930693069307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9305227987421383</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
